--- a/Bus_route/res/1번노선(최종).xlsx
+++ b/Bus_route/res/1번노선(최종).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WithU-HJ\Bus_route\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
   <si>
     <t>NAME</t>
   </si>
@@ -60,16 +60,37 @@
     <t>모라주공아파트</t>
   </si>
   <si>
+    <t>서면역.서면지하상가</t>
+  </si>
+  <si>
+    <t>남구청후문</t>
+  </si>
+  <si>
+    <t>올림픽교차로</t>
+  </si>
+  <si>
     <t>해운대구청</t>
   </si>
   <si>
+    <t>서부산공업고등학교</t>
+  </si>
+  <si>
     <t>사상종합복지관</t>
   </si>
   <si>
-    <t>남구청후문</t>
-  </si>
-  <si>
-    <t>부암3동주민센터</t>
+    <t>범내골역.상공회의소</t>
+  </si>
+  <si>
+    <t>중동역</t>
+  </si>
+  <si>
+    <t>대연역.부산은행</t>
+  </si>
+  <si>
+    <t>남구청.못골역</t>
+  </si>
+  <si>
+    <t>개금삼거리</t>
   </si>
   <si>
     <t>해운대시장</t>
@@ -78,19 +99,22 @@
     <t>주감중학교</t>
   </si>
   <si>
+    <t>해운대도시철도역</t>
+  </si>
+  <si>
     <t>부산북부고용노동지청</t>
   </si>
   <si>
     <t>자유아파트</t>
   </si>
   <si>
+    <t>롯데호텔백화점.서면역</t>
+  </si>
+  <si>
     <t>감만시장</t>
   </si>
   <si>
-    <t>당감4동</t>
-  </si>
-  <si>
-    <t>해운대도시철도역</t>
+    <t>부암역</t>
   </si>
   <si>
     <t>좌3동행정복지센터</t>
@@ -99,73 +123,55 @@
     <t>동원아파트</t>
   </si>
   <si>
-    <t>개성고등학교입구</t>
-  </si>
-  <si>
-    <t>개금3동주민센터</t>
-  </si>
-  <si>
     <t>부경대용당캠퍼스</t>
   </si>
   <si>
     <t>동천초등학교</t>
   </si>
   <si>
-    <t>범내골역.상공회의소</t>
+    <t>동부아파트</t>
   </si>
   <si>
     <t>모라주공3.4단지</t>
   </si>
   <si>
-    <t>동부아파트</t>
-  </si>
-  <si>
-    <t>태을의원</t>
-  </si>
-  <si>
-    <t>부암역.당감입구</t>
+    <t>한양아파트</t>
   </si>
   <si>
     <t>문현3동행정복지센터</t>
   </si>
   <si>
-    <t>한양아파트</t>
-  </si>
-  <si>
     <t>신도중.신도고등학교</t>
   </si>
   <si>
+    <t>국제금융센터.부산은행역</t>
+  </si>
+  <si>
     <t>시립박물관</t>
   </si>
   <si>
-    <t>문현교차로</t>
-  </si>
-  <si>
-    <t>서면역.서면지하상가</t>
-  </si>
-  <si>
     <t>감만창의문화촌</t>
   </si>
   <si>
+    <t>못골시장</t>
+  </si>
+  <si>
+    <t>모라주공1단지</t>
+  </si>
+  <si>
     <t>홈플러스</t>
   </si>
   <si>
-    <t>모라주공1단지</t>
-  </si>
-  <si>
-    <t>대연SK뷰아파트</t>
-  </si>
-  <si>
     <t>사상구</t>
   </si>
   <si>
+    <t>남구</t>
+  </si>
+  <si>
+    <t>부산진구</t>
+  </si>
+  <si>
     <t>해운대구</t>
-  </si>
-  <si>
-    <t>남구</t>
-  </si>
-  <si>
-    <t>부산진구</t>
   </si>
   <si>
     <t>위치</t>
@@ -188,14 +194,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,27 +226,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -244,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,19 +325,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -328,11 +388,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -637,17 +695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -686,24 +744,24 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>21090661010</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>35.1775904</v>
@@ -730,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -738,16 +796,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>50000003064</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>35.172784759999999</v>
@@ -774,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -782,16 +840,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>50000003067</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>35.171153019999998</v>
@@ -818,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -826,28 +884,28 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>21090531008</v>
+        <v>50000003069</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5">
-        <v>35.163090750000002</v>
+        <v>35.165519449999998</v>
       </c>
       <c r="F5">
-        <v>129.164525</v>
+        <v>129.16853889999999</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -859,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -870,25 +928,25 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>21090531008</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>50000002531</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
       <c r="E6">
-        <v>35.163578360000002</v>
+        <v>35.163090750000002</v>
       </c>
       <c r="F6">
-        <v>129.15863859999999</v>
+        <v>129.164525</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -903,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -914,25 +972,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>21070611008</v>
+        <v>50000002531</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>35.117963070000002</v>
+        <v>35.163578360000002</v>
       </c>
       <c r="F7">
-        <v>129.09576179999999</v>
+        <v>129.15863859999999</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -944,42 +1002,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>21070621001</v>
+        <v>50000002208</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>35.117033890000002</v>
+        <v>35.167600030000003</v>
       </c>
       <c r="F8">
-        <v>129.08117129999999</v>
+        <v>129.1404785</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -988,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1002,31 +1060,31 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>21070621003</v>
+        <v>21070611008</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>35.119415429999997</v>
+        <v>35.117963070000002</v>
       </c>
       <c r="F9">
-        <v>129.08089150000001</v>
+        <v>129.09576179999999</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1035,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -1046,25 +1104,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>21070631002</v>
+        <v>21070621001</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10">
-        <v>35.122402610000002</v>
+        <v>35.117033890000002</v>
       </c>
       <c r="F10">
-        <v>129.08383069999999</v>
+        <v>129.08117129999999</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1079,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -1090,32 +1148,32 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>21070541004</v>
+        <v>21070621003</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>35.128807739999999</v>
+        <v>35.119415429999997</v>
       </c>
       <c r="F11">
-        <v>129.091714</v>
+        <v>129.08089150000001</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -1123,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -1134,25 +1192,25 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>21070561029</v>
+        <v>21070631002</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>35.135794859999997</v>
+        <v>35.122402610000002</v>
       </c>
       <c r="F12">
-        <v>129.0839071</v>
+        <v>129.08383069999999</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1167,83 +1225,83 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
-        <v>107</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4">
-        <v>21070661005</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4">
-        <v>35.141462859999997</v>
-      </c>
-      <c r="F13" s="4">
-        <v>129.07895590000001</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>6</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>21070541004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>35.128807739999999</v>
+      </c>
+      <c r="F13">
+        <v>129.091714</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>21070661001</v>
+        <v>21070511005</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>35.143435230000001</v>
+        <v>35.133913679999999</v>
       </c>
       <c r="F14">
-        <v>129.07103240000001</v>
+        <v>129.09207309999999</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1255,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>13</v>
@@ -1266,25 +1324,25 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>21070681006</v>
+        <v>21070551009</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>35.138988259999998</v>
+        <v>35.135064239999998</v>
       </c>
       <c r="F15">
-        <v>129.07097519999999</v>
+        <v>129.0884758</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1299,83 +1357,83 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>116</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4">
-        <v>21070681003</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4">
-        <v>35.13713748</v>
-      </c>
-      <c r="F16" s="4">
-        <v>129.07012940000001</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>5</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>21070521002</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>35.134582109999997</v>
+      </c>
+      <c r="F16">
+        <v>129.0839929</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>21050771010</v>
+        <v>21070561029</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
       </c>
       <c r="E17">
-        <v>35.147769330000003</v>
+        <v>35.135794859999997</v>
       </c>
       <c r="F17">
-        <v>129.06102469999999</v>
+        <v>129.0839071</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1384,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N17">
         <v>16</v>
@@ -1398,28 +1456,28 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>21050641015</v>
+        <v>21070661001</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
       </c>
       <c r="E18">
-        <v>35.158548379999999</v>
+        <v>35.143435230000001</v>
       </c>
       <c r="F18">
-        <v>129.05068230000001</v>
+        <v>129.07103240000001</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1428,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="N18">
         <v>17</v>
@@ -1442,25 +1500,25 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>21050661018</v>
+        <v>21070681006</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
       </c>
       <c r="E19">
-        <v>35.16871853</v>
+        <v>35.138988259999998</v>
       </c>
       <c r="F19">
-        <v>129.03936479999999</v>
+        <v>129.07097519999999</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1472,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>18</v>
@@ -1486,28 +1544,28 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>21050701023</v>
+        <v>21070671007</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
       <c r="E20">
-        <v>35.165421930000001</v>
+        <v>35.14548053</v>
       </c>
       <c r="F20">
-        <v>129.03790749999999</v>
+        <v>129.06704690000001</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1516,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>19</v>
@@ -1530,28 +1588,28 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>21050691010</v>
+        <v>50000002624</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
-        <v>35.16504845</v>
+        <v>35.155166999999999</v>
       </c>
       <c r="F21">
-        <v>129.03424369999999</v>
+        <v>129.05925189999999</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1563,10 +1621,10 @@
         <v>5</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <v>20</v>
@@ -1574,87 +1632,87 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>21050761004</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22">
-        <v>35.156145760000001</v>
-      </c>
-      <c r="F22">
-        <v>129.02300679999999</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21050511013</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3">
+        <v>35.157856240000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>129.0558565</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>5</v>
       </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>25</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>21150601011</v>
+        <v>21050791010</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>35.155497859999997</v>
+        <v>35.15712499</v>
       </c>
       <c r="F23">
-        <v>128.99550489999999</v>
+        <v>129.0481977</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N23">
         <v>22</v>
@@ -1662,43 +1720,43 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>21150561013</v>
+        <v>21050741017</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>35.17915576</v>
+        <v>35.15338749</v>
       </c>
       <c r="F24">
-        <v>128.98867619999999</v>
+        <v>129.0267504</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>23</v>
@@ -1706,31 +1764,31 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>21150561015</v>
+        <v>21150601011</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>35.181046899999998</v>
+        <v>35.155497859999997</v>
       </c>
       <c r="F25">
-        <v>128.988722</v>
+        <v>128.99550489999999</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1739,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>24</v>
@@ -1750,28 +1808,28 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>21150531007</v>
+        <v>21150561014</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>35.183670139999997</v>
+        <v>35.17498672</v>
       </c>
       <c r="F26">
-        <v>128.99009520000001</v>
+        <v>128.98863230000001</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1783,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N26">
         <v>25</v>
@@ -1794,25 +1852,25 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>21150531008</v>
+        <v>21150561013</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27">
-        <v>35.185770329999997</v>
+        <v>35.17915576</v>
       </c>
       <c r="F27">
-        <v>128.9915216</v>
+        <v>128.98867619999999</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1821,42 +1879,42 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>21150541006</v>
+        <v>21150561015</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28">
-        <v>35.184560410000003</v>
+        <v>35.181046899999998</v>
       </c>
       <c r="F28">
-        <v>128.99328170000001</v>
+        <v>128.988722</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1865,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N28">
         <v>27</v>
@@ -1882,28 +1940,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>21150541005</v>
+        <v>21150531007</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29">
-        <v>35.185516020000001</v>
+        <v>35.183670139999997</v>
       </c>
       <c r="F29">
-        <v>128.99935020000001</v>
+        <v>128.99009520000001</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1915,54 +1973,54 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>21150541002</v>
+        <v>21150531008</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>35.184565999999997</v>
+        <v>35.185770329999997</v>
       </c>
       <c r="F30">
-        <v>129.0011825</v>
+        <v>128.9915216</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>2</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="N30">
         <v>29</v>
@@ -1970,43 +2028,43 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>21150541004</v>
+        <v>21150541006</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>35.186060150000003</v>
+        <v>35.184560410000003</v>
       </c>
       <c r="F31">
-        <v>128.99940309999999</v>
+        <v>128.99328170000001</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>2</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="N31">
         <v>30</v>
@@ -2014,43 +2072,43 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>21150531002</v>
+        <v>21150541005</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32">
-        <v>35.184830320000003</v>
+        <v>35.185516020000001</v>
       </c>
       <c r="F32">
-        <v>128.99332889999999</v>
+        <v>128.99935020000001</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="4">
-        <v>7</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>51</v>
+      <c r="L32">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>78</v>
       </c>
       <c r="N32">
         <v>31</v>
@@ -2058,116 +2116,116 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>21150531003</v>
+        <v>21150541002</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33">
-        <v>35.185842479999998</v>
+        <v>35.184565999999997</v>
       </c>
       <c r="F33">
-        <v>128.99179219999999</v>
+        <v>129.0011825</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33">
-        <v>7</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33">
+      <c r="L33" s="4">
+        <v>62</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>21150531005</v>
+        <v>21150541003</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>35.183933430000003</v>
+        <v>35.184743519999998</v>
       </c>
       <c r="F34">
-        <v>128.98986790000001</v>
+        <v>129.00118749999999</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>16</v>
-      </c>
-      <c r="M34" t="s">
-        <v>64</v>
-      </c>
-      <c r="N34">
+        <v>59</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>21150561009</v>
+        <v>21150541004</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>35.181230589999998</v>
+        <v>35.186060150000003</v>
       </c>
       <c r="F35">
-        <v>128.98835209999999</v>
+        <v>128.99940309999999</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2179,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="N35">
         <v>34</v>
@@ -2190,25 +2248,25 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C36">
-        <v>21150561008</v>
+        <v>21150531002</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>35.17835951</v>
+        <v>35.184830320000003</v>
       </c>
       <c r="F36">
-        <v>128.98832200000001</v>
+        <v>128.99332889999999</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2217,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M36" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="N36">
         <v>35</v>
@@ -2234,43 +2292,43 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>21150531003</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>35.185842479999998</v>
+      </c>
+      <c r="F37">
+        <v>128.99179219999999</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37">
-        <v>21150601012</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37">
-        <v>35.155827209999998</v>
-      </c>
-      <c r="F37">
-        <v>128.99473789999999</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N37">
         <v>36</v>
@@ -2278,25 +2336,25 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>21050761005</v>
+        <v>21150531005</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38">
-        <v>35.155899580000003</v>
+        <v>35.183933430000003</v>
       </c>
       <c r="F38">
-        <v>129.0233092</v>
+        <v>128.98986790000001</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2308,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="N38">
         <v>37</v>
@@ -2322,25 +2380,25 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>21050691008</v>
+        <v>21150561009</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>35.164853469999997</v>
+        <v>35.181230589999998</v>
       </c>
       <c r="F39">
-        <v>129.03479619999999</v>
+        <v>128.98835209999999</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2352,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N39">
         <v>38</v>
@@ -2366,28 +2424,28 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>21050701022</v>
+        <v>21150561008</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40">
-        <v>35.165232899999999</v>
+        <v>35.17835951</v>
       </c>
       <c r="F40">
-        <v>129.03859069999999</v>
+        <v>128.98832200000001</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2396,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M40" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N40">
         <v>39</v>
@@ -2410,28 +2468,28 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>21050661017</v>
+        <v>21150561007</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41">
-        <v>35.168665140000002</v>
+        <v>35.175740310000002</v>
       </c>
       <c r="F41">
-        <v>129.0395628</v>
+        <v>128.98828850000001</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2440,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="N41">
         <v>40</v>
@@ -2454,28 +2512,28 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C42">
-        <v>21050681001</v>
+        <v>21050741006</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42">
-        <v>35.15898859</v>
+        <v>35.152928609999996</v>
       </c>
       <c r="F42">
-        <v>129.050072</v>
+        <v>129.02631149999999</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2487,83 +2545,83 @@
         <v>5</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N42">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
-        <v>93</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="4">
-        <v>50000002623</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="4">
-        <v>35.155945959999997</v>
-      </c>
-      <c r="F43" s="4">
-        <v>129.0590191</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>21150601012</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>35.155827209999998</v>
+      </c>
+      <c r="F43">
+        <v>128.99473789999999</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>1</v>
       </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>5</v>
-      </c>
-      <c r="L43" s="4">
-        <v>9</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N43">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>21070681010</v>
+        <v>21050791011</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44">
-        <v>35.138853060000002</v>
+        <v>35.156667409999997</v>
       </c>
       <c r="F44">
-        <v>129.07124060000001</v>
+        <v>129.04834539999999</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2572,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N44">
         <v>43</v>
@@ -2586,29 +2644,29 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C45">
-        <v>21070661006</v>
+        <v>21050521024</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45">
-        <v>35.143360389999998</v>
+        <v>35.15737515</v>
       </c>
       <c r="F45">
-        <v>129.0713107</v>
+        <v>129.05677779999999</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>3</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0</v>
       </c>
@@ -2616,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N45">
         <v>44</v>
@@ -2630,28 +2688,28 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>21070561028</v>
+        <v>50000002623</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46">
-        <v>35.135902260000002</v>
+        <v>35.155945959999997</v>
       </c>
       <c r="F46">
-        <v>129.0836118</v>
+        <v>129.0590191</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2660,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N46">
         <v>45</v>
@@ -2674,43 +2732,43 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47">
-        <v>21070541008</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47">
-        <v>35.128893169999998</v>
-      </c>
-      <c r="F47">
-        <v>129.0913692</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>10</v>
-      </c>
-      <c r="M47" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3">
+        <v>21050771010</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="3">
+        <v>35.147769330000003</v>
+      </c>
+      <c r="F47" s="3">
+        <v>129.06102469999999</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
+        <v>40</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="N47">
         <v>46</v>
@@ -2718,29 +2776,29 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>21070631004</v>
+        <v>21070671010</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48">
-        <v>35.122631609999999</v>
+        <v>35.14527605</v>
       </c>
       <c r="F48">
-        <v>129.08365240000001</v>
+        <v>129.0664696</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
         <v>0</v>
       </c>
@@ -2751,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="N48">
         <v>47</v>
@@ -2762,31 +2820,31 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49">
-        <v>21070621005</v>
+        <v>21070681010</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49">
-        <v>35.118487909999999</v>
+        <v>35.138853060000002</v>
       </c>
       <c r="F49">
-        <v>129.08027749999999</v>
+        <v>129.07124060000001</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2795,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N49">
         <v>48</v>
@@ -2806,25 +2864,25 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C50">
-        <v>21070621006</v>
+        <v>21070661006</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50">
-        <v>35.116730259999997</v>
+        <v>35.143360389999998</v>
       </c>
       <c r="F50">
-        <v>129.0809051</v>
+        <v>129.0713107</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2839,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M50" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="N50">
         <v>49</v>
@@ -2850,29 +2908,29 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>21070611013</v>
+        <v>21070561028</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E51">
-        <v>35.118279280000003</v>
+        <v>35.135902260000002</v>
       </c>
       <c r="F51">
-        <v>129.0964663</v>
+        <v>129.0836118</v>
       </c>
       <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
         <v>0</v>
       </c>
@@ -2883,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N51">
         <v>50</v>
@@ -2894,28 +2952,28 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>50000002532</v>
+        <v>21070561004</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52">
-        <v>35.163325659999998</v>
+        <v>35.134836419999999</v>
       </c>
       <c r="F52">
-        <v>129.15840700000001</v>
+        <v>129.08411090000001</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2924,13 +2982,13 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N52">
         <v>51</v>
@@ -2938,28 +2996,28 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>21090531006</v>
+        <v>21070521003</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E53">
-        <v>35.162245599999999</v>
+        <v>35.134776799999997</v>
       </c>
       <c r="F53">
-        <v>129.1632219</v>
+        <v>129.0875829</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2968,13 +3026,13 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M53" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N53">
         <v>52</v>
@@ -2982,40 +3040,40 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>21070511004</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54">
+        <v>35.134639110000002</v>
+      </c>
+      <c r="F54">
+        <v>129.0917962</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>36</v>
-      </c>
-      <c r="C54">
-        <v>50000003066</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54">
-        <v>35.17112393</v>
-      </c>
-      <c r="F54">
-        <v>129.16681120000001</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>3</v>
-      </c>
-      <c r="L54">
-        <v>8</v>
       </c>
       <c r="M54" t="s">
         <v>53</v>
@@ -3026,25 +3084,25 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C55">
-        <v>50000003065</v>
+        <v>21070541008</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E55">
-        <v>35.172711020000001</v>
+        <v>35.128893169999998</v>
       </c>
       <c r="F55">
-        <v>129.16725389999999</v>
+        <v>129.0913692</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3056,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N55">
         <v>54</v>
@@ -3070,22 +3128,22 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>21090661013</v>
+        <v>21070631004</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E56">
-        <v>35.177260029999999</v>
+        <v>35.122631609999999</v>
       </c>
       <c r="F56">
-        <v>129.17703900000001</v>
+        <v>129.08365240000001</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3100,24 +3158,470 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N56">
         <v>55</v>
       </c>
     </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>21070621005</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57">
+        <v>35.118487909999999</v>
+      </c>
+      <c r="F57">
+        <v>129.08027749999999</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>9</v>
+      </c>
+      <c r="M57" t="s">
+        <v>62</v>
+      </c>
+      <c r="N57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>21070621006</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58">
+        <v>35.116730259999997</v>
+      </c>
+      <c r="F58">
+        <v>129.0809051</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58" t="s">
+        <v>62</v>
+      </c>
+      <c r="N58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>21070611013</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59">
+        <v>35.118279280000003</v>
+      </c>
+      <c r="F59">
+        <v>129.0964663</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>60</v>
+      </c>
+      <c r="N59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>50000002207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60">
+        <v>35.167802119999998</v>
+      </c>
+      <c r="F60">
+        <v>129.1400064</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>31</v>
+      </c>
+      <c r="M60" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>50000002532</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <v>35.163325659999998</v>
+      </c>
+      <c r="F61">
+        <v>129.15840700000001</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>27</v>
+      </c>
+      <c r="M61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>21090531006</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62">
+        <v>35.162245599999999</v>
+      </c>
+      <c r="F62">
+        <v>129.1632219</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>28</v>
+      </c>
+      <c r="M62" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>50000003068</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63">
+        <v>35.16581755</v>
+      </c>
+      <c r="F63">
+        <v>129.16874989999999</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>39</v>
+      </c>
+      <c r="M63" t="s">
+        <v>53</v>
+      </c>
+      <c r="N63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64">
+        <v>50000003066</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64">
+        <v>35.17112393</v>
+      </c>
+      <c r="F64">
+        <v>129.16681120000001</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>8</v>
+      </c>
+      <c r="M64" t="s">
+        <v>53</v>
+      </c>
+      <c r="N64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>50000003065</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <v>35.172711020000001</v>
+      </c>
+      <c r="F65">
+        <v>129.16725389999999</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>18</v>
+      </c>
+      <c r="M65" t="s">
+        <v>53</v>
+      </c>
+      <c r="N65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>21090661013</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66">
+        <v>35.177260029999999</v>
+      </c>
+      <c r="F66">
+        <v>129.17703900000001</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>18</v>
+      </c>
+      <c r="M66" t="s">
+        <v>53</v>
+      </c>
+      <c r="N66">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
-  <sortState ref="A2:N56">
-    <sortCondition ref="N2:N56"/>
+  <autoFilter ref="A1:N1">
+    <sortState ref="A2:N66">
+      <sortCondition ref="N1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:N188">
+    <sortCondition ref="D2:D188"/>
+    <sortCondition ref="B2:B188"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bus_route/res/1번노선(최종).xlsx
+++ b/Bus_route/res/1번노선(최종).xlsx
@@ -242,13 +242,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -556,12 +566,17 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="22.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="7" width="8.796875" style="3"/>
+    <col min="8" max="12" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
@@ -612,46 +627,46 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>21090661010</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>9047</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>35.1775904</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>129.17710170000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -659,43 +674,43 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>50000003064</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>35.172784759999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>129.1669101</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>2</v>
       </c>
     </row>
@@ -703,43 +718,43 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>50000003067</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>35.171153019999998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>129.16644429999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -747,43 +762,43 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>50000003069</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>35.165519449999998</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>129.16853889999999</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>9</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>39</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>4</v>
       </c>
     </row>
@@ -791,46 +806,46 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>21090531008</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>9090</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>35.163090750000002</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>129.164525</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>8</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>5</v>
       </c>
     </row>
@@ -838,46 +853,46 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>50000002531</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>9729</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>35.163578360000002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>129.15863859999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>18</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>6</v>
       </c>
     </row>
@@ -885,140 +900,140 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>50000002208</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>9719</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>35.167600030000003</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>129.1404785</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>10</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>43</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>21070611007</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>7110</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>35.123472329999998</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>129.09719140000001</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>8</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>21070541007</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>7109</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>35.126232590000001</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>129.09573810000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>20</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1026,46 +1041,46 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>21070511005</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>7065</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>35.133913679999999</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>129.09207309999999</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>4</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>16</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1073,46 +1088,46 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>21070551009</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>7062</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>35.135064239999998</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>129.0884758</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1120,46 +1135,46 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>21070521002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>7164</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>35.134582109999997</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>129.0839929</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>32</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="4">
         <v>12</v>
       </c>
     </row>
@@ -1167,46 +1182,46 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>21070671007</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>7067</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>35.14548053</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>129.06704690000001</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="4">
         <v>13</v>
       </c>
     </row>
@@ -1214,46 +1229,46 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>50000002624</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>5710</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>35.155166999999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>129.05925189999999</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>5</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>5</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>25</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1261,46 +1276,46 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>21050511013</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>5189</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>35.157856240000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>129.0558565</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
         <v>5</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>25</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="4">
         <v>15</v>
       </c>
     </row>
@@ -1308,46 +1323,46 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>21050791010</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>5194</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>35.15712499</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>129.0481977</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>5</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>24</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1355,46 +1370,46 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>21050741017</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>5283</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>35.15338749</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>129.0267504</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>3</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>5</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>17</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="4">
         <v>17</v>
       </c>
     </row>
@@ -1402,46 +1417,46 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>21150601011</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>15100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>35.155497859999997</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>128.99550489999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>4</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
         <v>1</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>27</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="4">
         <v>18</v>
       </c>
     </row>
@@ -1449,46 +1464,46 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>21150561014</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>15048</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>35.17498672</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>128.98863230000001</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>10</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>41</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="4">
         <v>19</v>
       </c>
     </row>
@@ -1496,46 +1511,46 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>21150561013</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>15037</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>35.17915576</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>128.98867619999999</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>5</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>26</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="4">
         <v>20</v>
       </c>
     </row>
@@ -1543,46 +1558,46 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>21150561015</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>15036</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>35.181046899999998</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>128.988722</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>5</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>26</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="4">
         <v>21</v>
       </c>
     </row>
@@ -1590,46 +1605,46 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>21150531007</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>15027</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>35.183670139999997</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>128.99009520000001</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <v>21</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="4">
         <v>22</v>
       </c>
     </row>
@@ -1637,46 +1652,46 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>21150531008</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>15021</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>35.185770329999997</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>128.9915216</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>5</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="4">
         <v>23</v>
       </c>
     </row>
@@ -1684,46 +1699,46 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>21150541006</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>15023</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>35.184560410000003</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>128.99328170000001</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>2</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>1</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>5</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="4">
         <v>24</v>
       </c>
     </row>
@@ -1731,46 +1746,46 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>21150541005</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>15210</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>35.185516020000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>128.99935020000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>3</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>18</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="4">
         <v>25</v>
       </c>
     </row>
@@ -1778,46 +1793,46 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>21150541002</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>15024</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>35.184565999999997</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>129.0011825</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>5</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>6</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>5</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>1</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="3">
         <v>62</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="4">
         <v>26</v>
       </c>
     </row>
@@ -1825,46 +1840,46 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>21150541003</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>15025</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>35.184743519999998</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>129.00118749999999</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>5</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>5</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>5</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>1</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>59</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="4">
         <v>27</v>
       </c>
     </row>
@@ -1872,46 +1887,46 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>21150541004</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>15209</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>35.186060150000003</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>128.99940309999999</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>9</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="4">
         <v>28</v>
       </c>
     </row>
@@ -1919,46 +1934,46 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>21150531002</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>15022</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>35.184830320000003</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>128.99332889999999</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>1</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>7</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="4">
         <v>29</v>
       </c>
     </row>
@@ -1966,46 +1981,46 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>21150531003</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>15020</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>35.185842479999998</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>128.99179219999999</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
         <v>3</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>1</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>7</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="4">
         <v>30</v>
       </c>
     </row>
@@ -2013,46 +2028,46 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>21150531005</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>15026</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>35.183933430000003</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>128.98986790000001</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>16</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2060,46 +2075,46 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>21150561009</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>15035</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>35.181230589999998</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>128.98835209999999</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>5</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>1</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>26</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="4">
         <v>32</v>
       </c>
     </row>
@@ -2107,46 +2122,46 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>21150561008</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>15038</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>35.17835951</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>128.98832200000001</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>4</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
         <v>1</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>21</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="4">
         <v>33</v>
       </c>
     </row>
@@ -2154,46 +2169,46 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>21150561007</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>15047</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>35.175740310000002</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>128.98828850000001</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>4</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>1</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <v>17</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="4">
         <v>34</v>
       </c>
     </row>
@@ -2201,46 +2216,46 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>21050741006</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>5144</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>35.152928609999996</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>129.02631149999999</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
         <v>5</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
         <v>5</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <v>25</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="4">
         <v>35</v>
       </c>
     </row>
@@ -2248,46 +2263,46 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>21150601012</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>15099</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>35.155827209999998</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>128.99473789999999</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>5</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
         <v>5</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
         <v>1</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="3">
         <v>41</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="4">
         <v>36</v>
       </c>
     </row>
@@ -2295,46 +2310,46 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>21050791011</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>5195</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>35.156667409999997</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>129.04834539999999</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>1</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <v>5</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <v>14</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="4">
         <v>37</v>
       </c>
     </row>
@@ -2342,46 +2357,46 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>21050521024</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>5321</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>35.15737515</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>129.05677779999999</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
         <v>3</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
         <v>5</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="3">
         <v>17</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="4">
         <v>38</v>
       </c>
     </row>
@@ -2389,46 +2404,46 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>50000002623</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>5711</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>35.155945959999997</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>129.0590191</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
         <v>12</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <v>5</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <v>53</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="4">
         <v>39</v>
       </c>
     </row>
@@ -2436,46 +2451,46 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>21070671010</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>7168</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>35.14527605</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>129.0664696</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>3</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>12</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="4">
         <v>40</v>
       </c>
     </row>
@@ -2483,46 +2498,46 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>21070561004</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>7165</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>35.134836419999999</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>129.08411090000001</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>8</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>32</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="4">
         <v>41</v>
       </c>
     </row>
@@ -2530,46 +2545,46 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>21070521003</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>7060</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>35.134776799999997</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>129.0875829</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>2</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>8</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="4">
         <v>42</v>
       </c>
     </row>
@@ -2577,140 +2592,140 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>21070511004</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>7064</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>35.134639110000002</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>129.0917962</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>9</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>36</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="5">
         <v>21070541001</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="5">
         <v>7108</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
         <v>35.126817070000001</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="5">
         <v>129.09532400000001</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="5">
         <v>5</v>
       </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
         <v>25</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="5">
         <v>21070611011</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>7111</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="5">
         <v>35.123344619999997</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="5">
         <v>129.09702569999999</v>
       </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
         <v>2</v>
       </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
         <v>8</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="5">
         <v>45</v>
       </c>
     </row>
@@ -2718,46 +2733,46 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>50000002207</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>9720</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>35.167802119999998</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>129.1400064</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>7</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>3</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>31</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="4">
         <v>46</v>
       </c>
     </row>
@@ -2765,46 +2780,46 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>50000002532</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>9730</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>35.163325659999998</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>129.15840700000001</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>4</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>3</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="3">
         <v>27</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="4">
         <v>47</v>
       </c>
     </row>
@@ -2812,46 +2827,46 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>21090531006</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>9107</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>35.162245599999999</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>129.1632219</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>5</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>3</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="3">
         <v>28</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="4">
         <v>48</v>
       </c>
     </row>
@@ -2859,43 +2874,43 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>50000003068</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>35.16581755</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>129.16874989999999</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
         <v>9</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
         <v>3</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="3">
         <v>39</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="4">
         <v>49</v>
       </c>
     </row>
@@ -2903,43 +2918,43 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>50000003066</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>35.17112393</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>129.16681120000001</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
         <v>3</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="3">
         <v>8</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="4">
         <v>50</v>
       </c>
     </row>
@@ -2947,43 +2962,43 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>50000003065</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>35.172711020000001</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>129.16725389999999</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>3</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="3">
         <v>18</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="4">
         <v>51</v>
       </c>
     </row>
@@ -2991,46 +3006,46 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>21090661013</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>9048</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>35.177260029999999</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>129.17703900000001</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>3</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
         <v>3</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="3">
         <v>18</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="4">
         <v>52</v>
       </c>
     </row>
